--- a/all_weights.xlsx
+++ b/all_weights.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a768fb6d85de1e2f/Dokumente/Research Basics and Coding Projects/Data Projects/Marc Pawlitzki/CIDP/WithingsWebApp/api-oauth2-python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E436BEDE41896AC16A170BC02B1BE47B5028880C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25011E1-0682-41E0-9614-AAA924783FE0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1477,8 +1483,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1541,6 +1547,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1587,7 +1601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,9 +1633,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1653,6 +1685,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1828,14 +1878,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="4" max="4" width="46.41015625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,7 +1943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1935,7 +1990,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1982,7 +2037,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2029,7 +2084,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2073,10 +2128,10 @@
         <v>131</v>
       </c>
       <c r="R5">
-        <v>95.90000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2123,7 +2178,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2170,7 +2225,7 @@
         <v>74.2</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2217,7 +2272,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2261,10 +2316,10 @@
         <v>131</v>
       </c>
       <c r="R9">
-        <v>80.40000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2311,7 +2366,7 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2355,10 +2410,10 @@
         <v>131</v>
       </c>
       <c r="R11">
-        <v>96.90000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2405,7 +2460,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2452,7 +2507,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2499,7 +2554,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2546,7 +2601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2593,7 +2648,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2640,7 +2695,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2687,7 +2742,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2734,7 +2789,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2778,10 +2833,10 @@
         <v>131</v>
       </c>
       <c r="R20">
-        <v>70.59999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2828,7 +2883,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2872,10 +2927,10 @@
         <v>131</v>
       </c>
       <c r="R22">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2922,7 +2977,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2969,7 +3024,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3016,7 +3071,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3060,10 +3115,10 @@
         <v>131</v>
       </c>
       <c r="R26">
-        <v>71.40000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3110,7 +3165,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3157,7 +3212,7 @@
         <v>112.3</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3204,7 +3259,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3251,7 +3306,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3298,7 +3353,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3345,7 +3400,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3392,7 +3447,7 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3439,7 +3494,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3486,7 +3541,7 @@
         <v>112.9</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3533,7 +3588,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3580,7 +3635,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3624,10 +3679,10 @@
         <v>131</v>
       </c>
       <c r="R38">
-        <v>70.09999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3671,10 +3726,10 @@
         <v>131</v>
       </c>
       <c r="R39">
-        <v>69.40000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3718,10 +3773,10 @@
         <v>131</v>
       </c>
       <c r="R40">
-        <v>89.90000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3768,7 +3823,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3815,7 +3870,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3862,7 +3917,7 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3906,10 +3961,10 @@
         <v>131</v>
       </c>
       <c r="R44">
-        <v>69.40000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3953,10 +4008,10 @@
         <v>131</v>
       </c>
       <c r="R45">
-        <v>98.40000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4003,7 +4058,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4050,7 +4105,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4097,7 +4152,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4144,7 +4199,7 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4191,7 +4246,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4235,10 +4290,10 @@
         <v>131</v>
       </c>
       <c r="R51">
-        <v>85.40000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4285,7 +4340,7 @@
         <v>99.7</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4332,7 +4387,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4379,7 +4434,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4426,7 +4481,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4473,7 +4528,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4517,10 +4572,10 @@
         <v>131</v>
       </c>
       <c r="R57">
-        <v>77.09999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4564,10 +4619,10 @@
         <v>131</v>
       </c>
       <c r="R58">
-        <v>97.59999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4614,7 +4669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4661,7 +4716,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4705,10 +4760,10 @@
         <v>131</v>
       </c>
       <c r="R61">
-        <v>96.59999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>96.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4755,7 +4810,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4802,7 +4857,7 @@
         <v>103.8</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4849,7 +4904,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4896,7 +4951,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4943,7 +4998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4990,7 +5045,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5037,7 +5092,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5084,7 +5139,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5131,7 +5186,7 @@
         <v>105.1</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5178,7 +5233,7 @@
         <v>65.7</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5225,7 +5280,7 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5272,7 +5327,7 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5316,10 +5371,10 @@
         <v>131</v>
       </c>
       <c r="R74">
-        <v>80.09999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5366,7 +5421,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5413,7 +5468,7 @@
         <v>119.4</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5457,10 +5512,10 @@
         <v>131</v>
       </c>
       <c r="R77">
-        <v>84.90000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5504,10 +5559,10 @@
         <v>131</v>
       </c>
       <c r="R78">
-        <v>85.40000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5551,10 +5606,10 @@
         <v>131</v>
       </c>
       <c r="R79">
-        <v>82.59999999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5601,7 +5656,7 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5648,7 +5703,7 @@
         <v>113.5</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5695,7 +5750,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5742,7 +5797,7 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5789,7 +5844,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5836,7 +5891,7 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5883,7 +5938,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5930,7 +5985,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5977,7 +6032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6024,7 +6079,7 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6071,7 +6126,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6118,7 +6173,7 @@
         <v>119.9</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6165,7 +6220,7 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6212,7 +6267,7 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6256,10 +6311,10 @@
         <v>131</v>
       </c>
       <c r="R94">
-        <v>91.09999999999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6306,7 +6361,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6353,7 +6408,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6400,7 +6455,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6447,7 +6502,7 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6494,7 +6549,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6541,7 +6596,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6588,7 +6643,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6635,7 +6690,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6682,7 +6737,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6723,7 +6778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6764,7 +6819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6805,7 +6860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6846,7 +6901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6887,7 +6942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6928,7 +6983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6969,7 +7024,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7010,7 +7065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7051,7 +7106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7092,7 +7147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7133,7 +7188,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7174,7 +7229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7215,7 +7270,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7256,7 +7311,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7297,7 +7352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7338,7 +7393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7379,7 +7434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7420,7 +7475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7461,7 +7516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7502,7 +7557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7543,7 +7598,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7584,7 +7639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7625,7 +7680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7666,7 +7721,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7707,7 +7762,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7748,7 +7803,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7789,7 +7844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7830,7 +7885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -7877,7 +7932,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7921,10 +7976,10 @@
         <v>131</v>
       </c>
       <c r="R133">
-        <v>49.668</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18">
+        <v>49.667999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7968,10 +8023,10 @@
         <v>131</v>
       </c>
       <c r="R134">
-        <v>49.707</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18">
+        <v>49.707000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8015,10 +8070,10 @@
         <v>131</v>
       </c>
       <c r="R135">
-        <v>49.629</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18">
+        <v>49.628999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8062,10 +8117,10 @@
         <v>131</v>
       </c>
       <c r="R136">
-        <v>49.526</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18">
+        <v>49.526000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8109,10 +8164,10 @@
         <v>131</v>
       </c>
       <c r="R137">
-        <v>50.264</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18">
+        <v>50.264000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8159,7 +8214,7 @@
         <v>49.939</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8203,10 +8258,10 @@
         <v>131</v>
       </c>
       <c r="R139">
-        <v>50.144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18">
+        <v>50.143999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8250,10 +8305,10 @@
         <v>131</v>
       </c>
       <c r="R140">
-        <v>49.955</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18">
+        <v>49.954999999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8300,7 +8355,7 @@
         <v>50.93</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8344,10 +8399,10 @@
         <v>131</v>
       </c>
       <c r="R142">
-        <v>50.855</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18">
+        <v>50.854999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8394,7 +8449,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8438,10 +8493,10 @@
         <v>131</v>
       </c>
       <c r="R144">
-        <v>48.928</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18">
+        <v>48.927999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8485,10 +8540,10 @@
         <v>131</v>
       </c>
       <c r="R145">
-        <v>48.226</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18">
+        <v>48.225999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8535,7 +8590,7 @@
         <v>48.823</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8579,10 +8634,10 @@
         <v>131</v>
       </c>
       <c r="R147">
-        <v>48.395</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18">
+        <v>48.395000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8629,7 +8684,7 @@
         <v>48.17</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8673,10 +8728,10 @@
         <v>131</v>
       </c>
       <c r="R149">
-        <v>48.471</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18">
+        <v>48.470999999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8720,10 +8775,10 @@
         <v>131</v>
       </c>
       <c r="R150">
-        <v>48.072</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18">
+        <v>48.072000000000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8767,10 +8822,10 @@
         <v>131</v>
       </c>
       <c r="R151">
-        <v>48.364</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18">
+        <v>48.363999999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8814,10 +8869,10 @@
         <v>131</v>
       </c>
       <c r="R152">
-        <v>47.885</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18">
+        <v>47.884999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8861,10 +8916,10 @@
         <v>131</v>
       </c>
       <c r="R153">
-        <v>48.328</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18">
+        <v>48.328000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8908,10 +8963,10 @@
         <v>131</v>
       </c>
       <c r="R154">
-        <v>47.894</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18">
+        <v>47.893999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8955,10 +9010,10 @@
         <v>131</v>
       </c>
       <c r="R155">
-        <v>48.446</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18">
+        <v>48.445999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -9002,10 +9057,10 @@
         <v>131</v>
       </c>
       <c r="R156">
-        <v>48.088</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18">
+        <v>48.088000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -9049,10 +9104,10 @@
         <v>131</v>
       </c>
       <c r="R157">
-        <v>48.499</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18">
+        <v>48.499000000000002</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9096,10 +9151,10 @@
         <v>131</v>
       </c>
       <c r="R158">
-        <v>48.358</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18">
+        <v>48.357999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9146,7 +9201,7 @@
         <v>47.79</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9190,10 +9245,10 @@
         <v>131</v>
       </c>
       <c r="R160">
-        <v>47.339</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18">
+        <v>47.338999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9237,10 +9292,10 @@
         <v>131</v>
       </c>
       <c r="R161">
-        <v>47.478</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18">
+        <v>47.478000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9284,10 +9339,10 @@
         <v>131</v>
       </c>
       <c r="R162">
-        <v>47.024</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18">
+        <v>47.024000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9331,10 +9386,10 @@
         <v>131</v>
       </c>
       <c r="R163">
-        <v>46.804</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18">
+        <v>46.804000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -9381,7 +9436,7 @@
         <v>47.256</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -9425,10 +9480,10 @@
         <v>131</v>
       </c>
       <c r="R165">
-        <v>47.646</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18">
+        <v>47.646000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -9475,7 +9530,7 @@
         <v>46.94</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -9519,10 +9574,10 @@
         <v>131</v>
       </c>
       <c r="R167">
-        <v>46.645</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18">
+        <v>46.645000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -9566,10 +9621,10 @@
         <v>131</v>
       </c>
       <c r="R168">
-        <v>46.115</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18">
+        <v>46.115000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -9613,10 +9668,10 @@
         <v>131</v>
       </c>
       <c r="R169">
-        <v>47.171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18">
+        <v>47.170999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -9663,7 +9718,7 @@
         <v>47.44</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -9707,10 +9762,10 @@
         <v>131</v>
       </c>
       <c r="R171">
-        <v>46.599</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18">
+        <v>46.598999999999997</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -9754,10 +9809,10 @@
         <v>131</v>
       </c>
       <c r="R172">
-        <v>46.277</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18">
+        <v>46.277000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -9801,10 +9856,10 @@
         <v>131</v>
       </c>
       <c r="R173">
-        <v>47.121</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18">
+        <v>47.121000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -9848,10 +9903,10 @@
         <v>131</v>
       </c>
       <c r="R174">
-        <v>47.574</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18">
+        <v>47.573999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -9895,10 +9950,10 @@
         <v>131</v>
       </c>
       <c r="R175">
-        <v>46.701</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18">
+        <v>46.701000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -9942,10 +9997,10 @@
         <v>131</v>
       </c>
       <c r="R176">
-        <v>46.841</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18">
+        <v>46.841000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9989,10 +10044,10 @@
         <v>131</v>
       </c>
       <c r="R177">
-        <v>46.967</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18">
+        <v>46.966999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10036,10 +10091,10 @@
         <v>131</v>
       </c>
       <c r="R178">
-        <v>46.413</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18">
+        <v>46.412999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10083,10 +10138,10 @@
         <v>131</v>
       </c>
       <c r="R179">
-        <v>46.913</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18">
+        <v>46.912999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10130,10 +10185,10 @@
         <v>131</v>
       </c>
       <c r="R180">
-        <v>46.736</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18">
+        <v>46.735999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10177,10 +10232,10 @@
         <v>131</v>
       </c>
       <c r="R181">
-        <v>46.831</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18">
+        <v>46.831000000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10224,10 +10279,10 @@
         <v>131</v>
       </c>
       <c r="R182">
-        <v>47.049</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18">
+        <v>47.048999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10271,10 +10326,10 @@
         <v>131</v>
       </c>
       <c r="R183">
-        <v>46.861</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18">
+        <v>46.860999999999997</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10318,10 +10373,10 @@
         <v>131</v>
       </c>
       <c r="R184">
-        <v>46.601</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18">
+        <v>46.600999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10368,7 +10423,7 @@
         <v>47.238</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10412,10 +10467,10 @@
         <v>131</v>
       </c>
       <c r="R186">
-        <v>47.425</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18">
+        <v>47.424999999999997</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10459,10 +10514,10 @@
         <v>131</v>
       </c>
       <c r="R187">
-        <v>47.288</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18">
+        <v>47.287999999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10506,10 +10561,10 @@
         <v>131</v>
       </c>
       <c r="R188">
-        <v>47.133</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18">
+        <v>47.133000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10553,10 +10608,10 @@
         <v>131</v>
       </c>
       <c r="R189">
-        <v>47.697</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18">
+        <v>47.697000000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -10600,10 +10655,10 @@
         <v>131</v>
       </c>
       <c r="R190">
-        <v>48.014</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18">
+        <v>48.014000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -10647,10 +10702,10 @@
         <v>131</v>
       </c>
       <c r="R191">
-        <v>48.162</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18">
+        <v>48.161999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -10697,7 +10752,7 @@
         <v>48.817</v>
       </c>
     </row>
-    <row r="193" spans="1:18">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -10741,10 +10796,10 @@
         <v>131</v>
       </c>
       <c r="R193">
-        <v>48.204</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18">
+        <v>48.204000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -10791,7 +10846,7 @@
         <v>47.933</v>
       </c>
     </row>
-    <row r="195" spans="1:18">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -10835,10 +10890,10 @@
         <v>131</v>
       </c>
       <c r="R195">
-        <v>47.938</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18">
+        <v>47.938000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -10882,10 +10937,10 @@
         <v>131</v>
       </c>
       <c r="R196">
-        <v>49.276</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18">
+        <v>49.276000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -10929,10 +10984,10 @@
         <v>131</v>
       </c>
       <c r="R197">
-        <v>48.718</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18">
+        <v>48.718000000000004</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -10979,7 +11034,7 @@
         <v>49.28</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11023,10 +11078,10 @@
         <v>131</v>
       </c>
       <c r="R199">
-        <v>48.608</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18">
+        <v>48.607999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11070,10 +11125,10 @@
         <v>131</v>
       </c>
       <c r="R200">
-        <v>49.532</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18">
+        <v>49.531999999999996</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11117,10 +11172,10 @@
         <v>131</v>
       </c>
       <c r="R201">
-        <v>49.115</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18">
+        <v>49.115000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11164,10 +11219,10 @@
         <v>131</v>
       </c>
       <c r="R202">
-        <v>49.371</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18">
+        <v>49.371000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11214,7 +11269,7 @@
         <v>49.512</v>
       </c>
     </row>
-    <row r="204" spans="1:18">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11258,10 +11313,10 @@
         <v>131</v>
       </c>
       <c r="R204">
-        <v>49.589</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18">
+        <v>49.588999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11305,10 +11360,10 @@
         <v>131</v>
       </c>
       <c r="R205">
-        <v>49.405</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18">
+        <v>49.405000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -11355,7 +11410,7 @@
         <v>49.137</v>
       </c>
     </row>
-    <row r="207" spans="1:18">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11402,7 +11457,7 @@
         <v>49.381</v>
       </c>
     </row>
-    <row r="208" spans="1:18">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11449,7 +11504,7 @@
         <v>48.564</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11493,10 +11548,10 @@
         <v>131</v>
       </c>
       <c r="R209">
-        <v>47.925</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18">
+        <v>47.924999999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11543,7 +11598,7 @@
         <v>47.762</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11590,7 +11645,7 @@
         <v>48.177</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -11634,10 +11689,10 @@
         <v>131</v>
       </c>
       <c r="R212">
-        <v>48.221</v>
-      </c>
-    </row>
-    <row r="213" spans="1:18">
+        <v>48.220999999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11681,10 +11736,10 @@
         <v>131</v>
       </c>
       <c r="R213">
-        <v>47.402</v>
-      </c>
-    </row>
-    <row r="214" spans="1:18">
+        <v>47.402000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11731,7 +11786,7 @@
         <v>48.314</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -11775,10 +11830,10 @@
         <v>131</v>
       </c>
       <c r="R215">
-        <v>47.789</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18">
+        <v>47.789000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -11825,7 +11880,7 @@
         <v>47.47</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -11869,10 +11924,10 @@
         <v>131</v>
       </c>
       <c r="R217">
-        <v>47.457</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18">
+        <v>47.457000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -11916,10 +11971,10 @@
         <v>131</v>
       </c>
       <c r="R218">
-        <v>46.902</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18">
+        <v>46.902000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -11966,7 +12021,7 @@
         <v>47.44</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12013,7 +12068,7 @@
         <v>47.387</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12057,10 +12112,10 @@
         <v>131</v>
       </c>
       <c r="R221">
-        <v>47.126</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18">
+        <v>47.125999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12107,7 +12162,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12151,10 +12206,10 @@
         <v>131</v>
       </c>
       <c r="R223">
-        <v>48.329</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18">
+        <v>48.329000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12201,7 +12256,7 @@
         <v>47.567</v>
       </c>
     </row>
-    <row r="225" spans="1:18">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12245,10 +12300,10 @@
         <v>131</v>
       </c>
       <c r="R225">
-        <v>47.847</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18">
+        <v>47.847000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12292,10 +12347,10 @@
         <v>131</v>
       </c>
       <c r="R226">
-        <v>47.787</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18">
+        <v>47.786999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -12339,10 +12394,10 @@
         <v>131</v>
       </c>
       <c r="R227">
-        <v>47.967</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18">
+        <v>47.966999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12386,10 +12441,10 @@
         <v>131</v>
       </c>
       <c r="R228">
-        <v>48.227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18">
+        <v>48.226999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12433,10 +12488,10 @@
         <v>131</v>
       </c>
       <c r="R229">
-        <v>48.364</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18">
+        <v>48.363999999999997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12480,10 +12535,10 @@
         <v>131</v>
       </c>
       <c r="R230">
-        <v>47.849</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18">
+        <v>47.848999999999997</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12527,10 +12582,10 @@
         <v>131</v>
       </c>
       <c r="R231">
-        <v>48.143</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18">
+        <v>48.143000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12574,10 +12629,10 @@
         <v>131</v>
       </c>
       <c r="R232">
-        <v>48.559</v>
-      </c>
-    </row>
-    <row r="233" spans="1:18">
+        <v>48.558999999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -12624,7 +12679,7 @@
         <v>48.503</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -12671,7 +12726,7 @@
         <v>48.058</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -12715,10 +12770,10 @@
         <v>131</v>
       </c>
       <c r="R235">
-        <v>48.499</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18">
+        <v>48.499000000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -12762,10 +12817,10 @@
         <v>131</v>
       </c>
       <c r="R236">
-        <v>48.367</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18">
+        <v>48.366999999999997</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -12812,7 +12867,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -12859,7 +12914,7 @@
         <v>48.19</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -12903,10 +12958,10 @@
         <v>131</v>
       </c>
       <c r="R239">
-        <v>48.297</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18">
+        <v>48.296999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -12950,10 +13005,10 @@
         <v>131</v>
       </c>
       <c r="R240">
-        <v>48.517</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18">
+        <v>48.517000000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -12997,10 +13052,10 @@
         <v>131</v>
       </c>
       <c r="R241">
-        <v>48.656</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18">
+        <v>48.655999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -13044,10 +13099,10 @@
         <v>131</v>
       </c>
       <c r="R242">
-        <v>48.467</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18">
+        <v>48.466999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -13091,10 +13146,10 @@
         <v>131</v>
       </c>
       <c r="R243">
-        <v>48.402</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18">
+        <v>48.402000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -13138,10 +13193,10 @@
         <v>131</v>
       </c>
       <c r="R244">
-        <v>48.336</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18">
+        <v>48.335999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -13185,10 +13240,10 @@
         <v>131</v>
       </c>
       <c r="R245">
-        <v>48.458</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18">
+        <v>48.457999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -13232,10 +13287,10 @@
         <v>131</v>
       </c>
       <c r="R246">
-        <v>48.583</v>
-      </c>
-    </row>
-    <row r="247" spans="1:18">
+        <v>48.582999999999998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -13279,10 +13334,10 @@
         <v>131</v>
       </c>
       <c r="R247">
-        <v>48.789</v>
-      </c>
-    </row>
-    <row r="248" spans="1:18">
+        <v>48.789000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -13326,10 +13381,10 @@
         <v>131</v>
       </c>
       <c r="R248">
-        <v>49.299</v>
-      </c>
-    </row>
-    <row r="249" spans="1:18">
+        <v>49.298999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -13373,10 +13428,10 @@
         <v>131</v>
       </c>
       <c r="R249">
-        <v>49.239</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18">
+        <v>49.238999999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -13420,10 +13475,10 @@
         <v>131</v>
       </c>
       <c r="R250">
-        <v>49.209</v>
-      </c>
-    </row>
-    <row r="251" spans="1:18">
+        <v>49.209000000000003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -13467,10 +13522,10 @@
         <v>131</v>
       </c>
       <c r="R251">
-        <v>49.944</v>
-      </c>
-    </row>
-    <row r="252" spans="1:18">
+        <v>49.944000000000003</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -13514,10 +13569,10 @@
         <v>131</v>
       </c>
       <c r="R252">
-        <v>50.097</v>
-      </c>
-    </row>
-    <row r="253" spans="1:18">
+        <v>50.097000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -13564,7 +13619,7 @@
         <v>50.08</v>
       </c>
     </row>
-    <row r="254" spans="1:18">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -13608,10 +13663,10 @@
         <v>131</v>
       </c>
       <c r="R254">
-        <v>50.526</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18">
+        <v>50.526000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -13655,10 +13710,10 @@
         <v>131</v>
       </c>
       <c r="R255">
-        <v>49.724</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18">
+        <v>49.723999999999997</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -13702,10 +13757,10 @@
         <v>131</v>
       </c>
       <c r="R256">
-        <v>49.968</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18">
+        <v>49.968000000000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -13749,10 +13804,10 @@
         <v>131</v>
       </c>
       <c r="R257">
-        <v>50.014</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18">
+        <v>50.014000000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -13799,7 +13854,7 @@
         <v>49.881</v>
       </c>
     </row>
-    <row r="259" spans="1:18">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -13843,10 +13898,10 @@
         <v>131</v>
       </c>
       <c r="R259">
-        <v>49.627</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18">
+        <v>49.627000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -13890,10 +13945,10 @@
         <v>131</v>
       </c>
       <c r="R260">
-        <v>49.684</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18">
+        <v>49.683999999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -13937,10 +13992,10 @@
         <v>131</v>
       </c>
       <c r="R261">
-        <v>49.959</v>
-      </c>
-    </row>
-    <row r="262" spans="1:18">
+        <v>49.959000000000003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -13984,10 +14039,10 @@
         <v>131</v>
       </c>
       <c r="R262">
-        <v>50.069</v>
-      </c>
-    </row>
-    <row r="263" spans="1:18">
+        <v>50.069000000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -14031,10 +14086,10 @@
         <v>131</v>
       </c>
       <c r="R263">
-        <v>49.815</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18">
+        <v>49.814999999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -14078,10 +14133,10 @@
         <v>131</v>
       </c>
       <c r="R264">
-        <v>49.062</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18">
+        <v>49.061999999999998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -14125,10 +14180,10 @@
         <v>131</v>
       </c>
       <c r="R265">
-        <v>49.202</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18">
+        <v>49.201999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -14175,7 +14230,7 @@
         <v>49.055</v>
       </c>
     </row>
-    <row r="267" spans="1:18">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -14219,10 +14274,10 @@
         <v>131</v>
       </c>
       <c r="R267">
-        <v>49.296</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18">
+        <v>49.295999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -14266,10 +14321,10 @@
         <v>131</v>
       </c>
       <c r="R268">
-        <v>49.415</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18">
+        <v>49.414999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -14313,10 +14368,10 @@
         <v>131</v>
       </c>
       <c r="R269">
-        <v>49.935</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18">
+        <v>49.935000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -14363,7 +14418,7 @@
         <v>49.558</v>
       </c>
     </row>
-    <row r="271" spans="1:18">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -14407,10 +14462,10 @@
         <v>131</v>
       </c>
       <c r="R271">
-        <v>49.099</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18">
+        <v>49.098999999999997</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -14454,10 +14509,10 @@
         <v>131</v>
       </c>
       <c r="R272">
-        <v>48.938</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18">
+        <v>48.938000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -14501,10 +14556,10 @@
         <v>131</v>
       </c>
       <c r="R273">
-        <v>49.409</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18">
+        <v>49.408999999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -14548,10 +14603,10 @@
         <v>131</v>
       </c>
       <c r="R274">
-        <v>49.661</v>
-      </c>
-    </row>
-    <row r="275" spans="1:18">
+        <v>49.661000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -14595,10 +14650,10 @@
         <v>131</v>
       </c>
       <c r="R275">
-        <v>49.795</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18">
+        <v>49.795000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -14642,10 +14697,10 @@
         <v>131</v>
       </c>
       <c r="R276">
-        <v>49.371</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18">
+        <v>49.371000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -14689,10 +14744,10 @@
         <v>131</v>
       </c>
       <c r="R277">
-        <v>49.374</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18">
+        <v>49.374000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -14736,10 +14791,10 @@
         <v>131</v>
       </c>
       <c r="R278">
-        <v>49.341</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18">
+        <v>49.341000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -14783,10 +14838,10 @@
         <v>131</v>
       </c>
       <c r="R279">
-        <v>49.047</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18">
+        <v>49.046999999999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -14830,10 +14885,10 @@
         <v>131</v>
       </c>
       <c r="R280">
-        <v>48.793</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18">
+        <v>48.792999999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -14880,7 +14935,7 @@
         <v>48.994</v>
       </c>
     </row>
-    <row r="282" spans="1:18">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -14924,10 +14979,10 @@
         <v>131</v>
       </c>
       <c r="R282">
-        <v>48.893</v>
-      </c>
-    </row>
-    <row r="283" spans="1:18">
+        <v>48.893000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -14974,7 +15029,7 @@
         <v>48.378</v>
       </c>
     </row>
-    <row r="284" spans="1:18">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -15018,10 +15073,10 @@
         <v>131</v>
       </c>
       <c r="R284">
-        <v>49.072</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18">
+        <v>49.072000000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -15065,10 +15120,10 @@
         <v>131</v>
       </c>
       <c r="R285">
-        <v>48.919</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18">
+        <v>48.918999999999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -15112,10 +15167,10 @@
         <v>131</v>
       </c>
       <c r="R286">
-        <v>48.147</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18">
+        <v>48.146999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -15159,10 +15214,10 @@
         <v>131</v>
       </c>
       <c r="R287">
-        <v>48.093</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18">
+        <v>48.093000000000004</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -15206,10 +15261,10 @@
         <v>131</v>
       </c>
       <c r="R288">
-        <v>47.721</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18">
+        <v>47.720999999999997</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -15256,7 +15311,7 @@
         <v>48.189</v>
       </c>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -15300,10 +15355,10 @@
         <v>131</v>
       </c>
       <c r="R290">
-        <v>48.036</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18">
+        <v>48.036000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -15350,7 +15405,7 @@
         <v>47.991</v>
       </c>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -15394,10 +15449,10 @@
         <v>131</v>
       </c>
       <c r="R292">
-        <v>48.222</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18">
+        <v>48.222000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -15444,7 +15499,7 @@
         <v>48.323</v>
       </c>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -15491,7 +15546,7 @@
         <v>48.195</v>
       </c>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -15535,10 +15590,10 @@
         <v>131</v>
       </c>
       <c r="R295">
-        <v>48.588</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18">
+        <v>48.588000000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -15582,10 +15637,10 @@
         <v>131</v>
       </c>
       <c r="R296">
-        <v>47.977</v>
-      </c>
-    </row>
-    <row r="297" spans="1:18">
+        <v>47.976999999999997</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -15629,10 +15684,10 @@
         <v>131</v>
       </c>
       <c r="R297">
-        <v>47.944</v>
-      </c>
-    </row>
-    <row r="298" spans="1:18">
+        <v>47.944000000000003</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -15676,10 +15731,10 @@
         <v>131</v>
       </c>
       <c r="R298">
-        <v>47.827</v>
-      </c>
-    </row>
-    <row r="299" spans="1:18">
+        <v>47.826999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -15723,10 +15778,10 @@
         <v>131</v>
       </c>
       <c r="R299">
-        <v>47.607</v>
-      </c>
-    </row>
-    <row r="300" spans="1:18">
+        <v>47.606999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -15773,7 +15828,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -15817,10 +15872,10 @@
         <v>131</v>
       </c>
       <c r="R301">
-        <v>47.465</v>
-      </c>
-    </row>
-    <row r="302" spans="1:18">
+        <v>47.465000000000003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -15867,7 +15922,7 @@
         <v>47.613</v>
       </c>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -15914,7 +15969,7 @@
         <v>47.622</v>
       </c>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -15958,10 +16013,10 @@
         <v>131</v>
       </c>
       <c r="R304">
-        <v>47.487</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18">
+        <v>47.487000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -16005,10 +16060,10 @@
         <v>131</v>
       </c>
       <c r="R305">
-        <v>47.245</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18">
+        <v>47.244999999999997</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -16052,10 +16107,10 @@
         <v>131</v>
       </c>
       <c r="R306">
-        <v>47.339</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18">
+        <v>47.338999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -16099,10 +16154,10 @@
         <v>131</v>
       </c>
       <c r="R307">
-        <v>46.783</v>
-      </c>
-    </row>
-    <row r="308" spans="1:18">
+        <v>46.783000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -16146,10 +16201,10 @@
         <v>131</v>
       </c>
       <c r="R308">
-        <v>47.215</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18">
+        <v>47.215000000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -16193,10 +16248,10 @@
         <v>131</v>
       </c>
       <c r="R309">
-        <v>47.078</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18">
+        <v>47.078000000000003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -16240,10 +16295,10 @@
         <v>131</v>
       </c>
       <c r="R310">
-        <v>47.222</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18">
+        <v>47.222000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -16287,10 +16342,10 @@
         <v>131</v>
       </c>
       <c r="R311">
-        <v>47.039</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18">
+        <v>47.039000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -16337,7 +16392,7 @@
         <v>47.125</v>
       </c>
     </row>
-    <row r="313" spans="1:18">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -16381,10 +16436,10 @@
         <v>131</v>
       </c>
       <c r="R313">
-        <v>47.584</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18">
+        <v>47.584000000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -16431,7 +16486,7 @@
         <v>47.238</v>
       </c>
     </row>
-    <row r="315" spans="1:18">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -16475,10 +16530,10 @@
         <v>131</v>
       </c>
       <c r="R315">
-        <v>47.449</v>
-      </c>
-    </row>
-    <row r="316" spans="1:18">
+        <v>47.448999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -16522,10 +16577,10 @@
         <v>131</v>
       </c>
       <c r="R316">
-        <v>47.406</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18">
+        <v>47.405999999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -16569,10 +16624,10 @@
         <v>131</v>
       </c>
       <c r="R317">
-        <v>47.286</v>
-      </c>
-    </row>
-    <row r="318" spans="1:18">
+        <v>47.286000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -16616,10 +16671,10 @@
         <v>131</v>
       </c>
       <c r="R318">
-        <v>47.873</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18">
+        <v>47.872999999999998</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -16666,7 +16721,7 @@
         <v>48.67</v>
       </c>
     </row>
-    <row r="320" spans="1:18">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -16710,10 +16765,10 @@
         <v>131</v>
       </c>
       <c r="R320">
-        <v>48.796</v>
-      </c>
-    </row>
-    <row r="321" spans="1:18">
+        <v>48.795999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -16760,7 +16815,7 @@
         <v>49.04</v>
       </c>
     </row>
-    <row r="322" spans="1:18">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -16804,10 +16859,10 @@
         <v>131</v>
       </c>
       <c r="R322">
-        <v>49.157</v>
-      </c>
-    </row>
-    <row r="323" spans="1:18">
+        <v>49.156999999999996</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -16851,10 +16906,10 @@
         <v>131</v>
       </c>
       <c r="R323">
-        <v>48.834</v>
-      </c>
-    </row>
-    <row r="324" spans="1:18">
+        <v>48.834000000000003</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -16901,7 +16956,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="325" spans="1:18">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -16948,7 +17003,7 @@
         <v>48.494</v>
       </c>
     </row>
-    <row r="326" spans="1:18">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -16992,10 +17047,10 @@
         <v>131</v>
       </c>
       <c r="R326">
-        <v>48.376</v>
-      </c>
-    </row>
-    <row r="327" spans="1:18">
+        <v>48.375999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17039,10 +17094,10 @@
         <v>131</v>
       </c>
       <c r="R327">
-        <v>47.581</v>
-      </c>
-    </row>
-    <row r="328" spans="1:18">
+        <v>47.581000000000003</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17086,10 +17141,10 @@
         <v>131</v>
       </c>
       <c r="R328">
-        <v>47.858</v>
-      </c>
-    </row>
-    <row r="329" spans="1:18">
+        <v>47.857999999999997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17136,7 +17191,7 @@
         <v>48.75</v>
       </c>
     </row>
-    <row r="330" spans="1:18">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17180,10 +17235,10 @@
         <v>131</v>
       </c>
       <c r="R330">
-        <v>48.484</v>
-      </c>
-    </row>
-    <row r="331" spans="1:18">
+        <v>48.484000000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17230,7 +17285,7 @@
         <v>47.72</v>
       </c>
     </row>
-    <row r="332" spans="1:18">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17274,10 +17329,10 @@
         <v>131</v>
       </c>
       <c r="R332">
-        <v>48.514</v>
-      </c>
-    </row>
-    <row r="333" spans="1:18">
+        <v>48.514000000000003</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17321,10 +17376,10 @@
         <v>131</v>
       </c>
       <c r="R333">
-        <v>48.163</v>
-      </c>
-    </row>
-    <row r="334" spans="1:18">
+        <v>48.162999999999997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -17368,10 +17423,10 @@
         <v>131</v>
       </c>
       <c r="R334">
-        <v>48.723</v>
-      </c>
-    </row>
-    <row r="335" spans="1:18">
+        <v>48.722999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -17415,10 +17470,10 @@
         <v>131</v>
       </c>
       <c r="R335">
-        <v>48.565</v>
-      </c>
-    </row>
-    <row r="336" spans="1:18">
+        <v>48.564999999999998</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -17462,10 +17517,10 @@
         <v>131</v>
       </c>
       <c r="R336">
-        <v>48.223</v>
-      </c>
-    </row>
-    <row r="337" spans="1:18">
+        <v>48.222999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -17509,10 +17564,10 @@
         <v>131</v>
       </c>
       <c r="R337">
-        <v>48.193</v>
-      </c>
-    </row>
-    <row r="338" spans="1:18">
+        <v>48.192999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -17556,10 +17611,10 @@
         <v>131</v>
       </c>
       <c r="R338">
-        <v>48.819</v>
-      </c>
-    </row>
-    <row r="339" spans="1:18">
+        <v>48.819000000000003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -17603,10 +17658,10 @@
         <v>131</v>
       </c>
       <c r="R339">
-        <v>49.422</v>
-      </c>
-    </row>
-    <row r="340" spans="1:18">
+        <v>49.421999999999997</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -17650,10 +17705,10 @@
         <v>131</v>
       </c>
       <c r="R340">
-        <v>49.418</v>
-      </c>
-    </row>
-    <row r="341" spans="1:18">
+        <v>49.417999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -17697,10 +17752,10 @@
         <v>131</v>
       </c>
       <c r="R341">
-        <v>48.827</v>
-      </c>
-    </row>
-    <row r="342" spans="1:18">
+        <v>48.826999999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -17744,10 +17799,10 @@
         <v>131</v>
       </c>
       <c r="R342">
-        <v>49.127</v>
-      </c>
-    </row>
-    <row r="343" spans="1:18">
+        <v>49.127000000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -17791,10 +17846,10 @@
         <v>131</v>
       </c>
       <c r="R343">
-        <v>49.083</v>
-      </c>
-    </row>
-    <row r="344" spans="1:18">
+        <v>49.082999999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -17838,10 +17893,10 @@
         <v>131</v>
       </c>
       <c r="R344">
-        <v>49.393</v>
-      </c>
-    </row>
-    <row r="345" spans="1:18">
+        <v>49.393000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -17888,7 +17943,7 @@
         <v>49.25</v>
       </c>
     </row>
-    <row r="346" spans="1:18">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -17932,10 +17987,10 @@
         <v>131</v>
       </c>
       <c r="R346">
-        <v>49.121</v>
-      </c>
-    </row>
-    <row r="347" spans="1:18">
+        <v>49.121000000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -17979,10 +18034,10 @@
         <v>131</v>
       </c>
       <c r="R347">
-        <v>49.516</v>
-      </c>
-    </row>
-    <row r="348" spans="1:18">
+        <v>49.515999999999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18026,10 +18081,10 @@
         <v>131</v>
       </c>
       <c r="R348">
-        <v>49.326</v>
-      </c>
-    </row>
-    <row r="349" spans="1:18">
+        <v>49.326000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18073,10 +18128,10 @@
         <v>131</v>
       </c>
       <c r="R349">
-        <v>48.998</v>
-      </c>
-    </row>
-    <row r="350" spans="1:18">
+        <v>48.997999999999998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18120,10 +18175,10 @@
         <v>131</v>
       </c>
       <c r="R350">
-        <v>49.321</v>
-      </c>
-    </row>
-    <row r="351" spans="1:18">
+        <v>49.320999999999998</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18167,10 +18222,10 @@
         <v>131</v>
       </c>
       <c r="R351">
-        <v>49.383</v>
-      </c>
-    </row>
-    <row r="352" spans="1:18">
+        <v>49.383000000000003</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -18214,10 +18269,10 @@
         <v>131</v>
       </c>
       <c r="R352">
-        <v>49.204</v>
-      </c>
-    </row>
-    <row r="353" spans="1:18">
+        <v>49.204000000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -18264,7 +18319,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -18308,10 +18363,10 @@
         <v>131</v>
       </c>
       <c r="R354">
-        <v>49.795</v>
-      </c>
-    </row>
-    <row r="355" spans="1:18">
+        <v>49.795000000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -18355,10 +18410,10 @@
         <v>131</v>
       </c>
       <c r="R355">
-        <v>49.921</v>
-      </c>
-    </row>
-    <row r="356" spans="1:18">
+        <v>49.920999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -18405,7 +18460,7 @@
         <v>49.67</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -18449,10 +18504,10 @@
         <v>131</v>
       </c>
       <c r="R357">
-        <v>49.999</v>
-      </c>
-    </row>
-    <row r="358" spans="1:18">
+        <v>49.999000000000002</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -18496,10 +18551,10 @@
         <v>131</v>
       </c>
       <c r="R358">
-        <v>49.711</v>
-      </c>
-    </row>
-    <row r="359" spans="1:18">
+        <v>49.710999999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -18546,7 +18601,7 @@
         <v>49.506</v>
       </c>
     </row>
-    <row r="360" spans="1:18">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -18590,10 +18645,10 @@
         <v>131</v>
       </c>
       <c r="R360">
-        <v>49.303</v>
-      </c>
-    </row>
-    <row r="361" spans="1:18">
+        <v>49.302999999999997</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -18637,10 +18692,10 @@
         <v>131</v>
       </c>
       <c r="R361">
-        <v>50.174</v>
-      </c>
-    </row>
-    <row r="362" spans="1:18">
+        <v>50.173999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -18684,10 +18739,10 @@
         <v>131</v>
       </c>
       <c r="R362">
-        <v>50.424</v>
-      </c>
-    </row>
-    <row r="363" spans="1:18">
+        <v>50.423999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -18731,10 +18786,10 @@
         <v>131</v>
       </c>
       <c r="R363">
-        <v>49.774</v>
-      </c>
-    </row>
-    <row r="364" spans="1:18">
+        <v>49.774000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -18778,10 +18833,10 @@
         <v>131</v>
       </c>
       <c r="R364">
-        <v>49.538</v>
-      </c>
-    </row>
-    <row r="365" spans="1:18">
+        <v>49.537999999999997</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -18825,10 +18880,10 @@
         <v>131</v>
       </c>
       <c r="R365">
-        <v>49.724</v>
-      </c>
-    </row>
-    <row r="366" spans="1:18">
+        <v>49.723999999999997</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -18875,7 +18930,7 @@
         <v>50.137</v>
       </c>
     </row>
-    <row r="367" spans="1:18">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -18919,10 +18974,10 @@
         <v>131</v>
       </c>
       <c r="R367">
-        <v>50.425</v>
-      </c>
-    </row>
-    <row r="368" spans="1:18">
+        <v>50.424999999999997</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -18966,10 +19021,10 @@
         <v>131</v>
       </c>
       <c r="R368">
-        <v>50.694</v>
-      </c>
-    </row>
-    <row r="369" spans="1:18">
+        <v>50.694000000000003</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -19013,10 +19068,10 @@
         <v>131</v>
       </c>
       <c r="R369">
-        <v>50.296</v>
-      </c>
-    </row>
-    <row r="370" spans="1:18">
+        <v>50.295999999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -19060,10 +19115,10 @@
         <v>131</v>
       </c>
       <c r="R370">
-        <v>49.705</v>
-      </c>
-    </row>
-    <row r="371" spans="1:18">
+        <v>49.704999999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -19107,10 +19162,10 @@
         <v>131</v>
       </c>
       <c r="R371">
-        <v>50.187</v>
-      </c>
-    </row>
-    <row r="372" spans="1:18">
+        <v>50.186999999999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -19154,10 +19209,10 @@
         <v>131</v>
       </c>
       <c r="R372">
-        <v>50.094</v>
-      </c>
-    </row>
-    <row r="373" spans="1:18">
+        <v>50.094000000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -19201,10 +19256,10 @@
         <v>131</v>
       </c>
       <c r="R373">
-        <v>50.477</v>
-      </c>
-    </row>
-    <row r="374" spans="1:18">
+        <v>50.476999999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -19248,10 +19303,10 @@
         <v>131</v>
       </c>
       <c r="R374">
-        <v>50.796</v>
-      </c>
-    </row>
-    <row r="375" spans="1:18">
+        <v>50.795999999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -19298,7 +19353,7 @@
         <v>50.95</v>
       </c>
     </row>
-    <row r="376" spans="1:18">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -19342,10 +19397,10 @@
         <v>131</v>
       </c>
       <c r="R376">
-        <v>50.809</v>
-      </c>
-    </row>
-    <row r="377" spans="1:18">
+        <v>50.808999999999997</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -19389,10 +19444,10 @@
         <v>131</v>
       </c>
       <c r="R377">
-        <v>50.312</v>
-      </c>
-    </row>
-    <row r="378" spans="1:18">
+        <v>50.311999999999998</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -19439,7 +19494,7 @@
         <v>50.439</v>
       </c>
     </row>
-    <row r="379" spans="1:18">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -19483,10 +19538,10 @@
         <v>131</v>
       </c>
       <c r="R379">
-        <v>50.279</v>
-      </c>
-    </row>
-    <row r="380" spans="1:18">
+        <v>50.279000000000003</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -19530,10 +19585,10 @@
         <v>131</v>
       </c>
       <c r="R380">
-        <v>50.285</v>
-      </c>
-    </row>
-    <row r="381" spans="1:18">
+        <v>50.284999999999997</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -19577,10 +19632,10 @@
         <v>131</v>
       </c>
       <c r="R381">
-        <v>50.482</v>
-      </c>
-    </row>
-    <row r="382" spans="1:18">
+        <v>50.481999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -19624,10 +19679,10 @@
         <v>131</v>
       </c>
       <c r="R382">
-        <v>50.334</v>
-      </c>
-    </row>
-    <row r="383" spans="1:18">
+        <v>50.334000000000003</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -19671,10 +19726,10 @@
         <v>131</v>
       </c>
       <c r="R383">
-        <v>50.903</v>
-      </c>
-    </row>
-    <row r="384" spans="1:18">
+        <v>50.902999999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -19718,10 +19773,10 @@
         <v>131</v>
       </c>
       <c r="R384">
-        <v>50.935</v>
-      </c>
-    </row>
-    <row r="385" spans="1:18">
+        <v>50.935000000000002</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -19765,10 +19820,10 @@
         <v>131</v>
       </c>
       <c r="R385">
-        <v>50.276</v>
-      </c>
-    </row>
-    <row r="386" spans="1:18">
+        <v>50.276000000000003</v>
+      </c>
+    </row>
+    <row r="386" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -19812,10 +19867,10 @@
         <v>131</v>
       </c>
       <c r="R386">
-        <v>50.775</v>
-      </c>
-    </row>
-    <row r="387" spans="1:18">
+        <v>50.774999999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -19859,10 +19914,10 @@
         <v>131</v>
       </c>
       <c r="R387">
-        <v>49.893</v>
-      </c>
-    </row>
-    <row r="388" spans="1:18">
+        <v>49.893000000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -19906,10 +19961,10 @@
         <v>131</v>
       </c>
       <c r="R388">
-        <v>49.598</v>
-      </c>
-    </row>
-    <row r="389" spans="1:18">
+        <v>49.597999999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -19953,10 +20008,10 @@
         <v>131</v>
       </c>
       <c r="R389">
-        <v>49.466</v>
-      </c>
-    </row>
-    <row r="390" spans="1:18">
+        <v>49.466000000000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -20000,10 +20055,10 @@
         <v>131</v>
       </c>
       <c r="R390">
-        <v>49.146</v>
-      </c>
-    </row>
-    <row r="391" spans="1:18">
+        <v>49.146000000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -20047,10 +20102,10 @@
         <v>131</v>
       </c>
       <c r="R391">
-        <v>49.351</v>
-      </c>
-    </row>
-    <row r="392" spans="1:18">
+        <v>49.350999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -20094,10 +20149,10 @@
         <v>131</v>
       </c>
       <c r="R392">
-        <v>49.586</v>
-      </c>
-    </row>
-    <row r="393" spans="1:18">
+        <v>49.585999999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -20141,10 +20196,10 @@
         <v>131</v>
       </c>
       <c r="R393">
-        <v>49.576</v>
-      </c>
-    </row>
-    <row r="394" spans="1:18">
+        <v>49.576000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -20188,10 +20243,10 @@
         <v>131</v>
       </c>
       <c r="R394">
-        <v>48.873</v>
-      </c>
-    </row>
-    <row r="395" spans="1:18">
+        <v>48.872999999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -20235,10 +20290,10 @@
         <v>131</v>
       </c>
       <c r="R395">
-        <v>48.767</v>
-      </c>
-    </row>
-    <row r="396" spans="1:18">
+        <v>48.767000000000003</v>
+      </c>
+    </row>
+    <row r="396" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -20282,10 +20337,10 @@
         <v>131</v>
       </c>
       <c r="R396">
-        <v>48.524</v>
-      </c>
-    </row>
-    <row r="397" spans="1:18">
+        <v>48.524000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -20332,7 +20387,7 @@
         <v>49.39</v>
       </c>
     </row>
-    <row r="398" spans="1:18">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -20379,7 +20434,7 @@
         <v>49.46</v>
       </c>
     </row>
-    <row r="399" spans="1:18">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -20423,10 +20478,10 @@
         <v>131</v>
       </c>
       <c r="R399">
-        <v>49.123</v>
-      </c>
-    </row>
-    <row r="400" spans="1:18">
+        <v>49.122999999999998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -20470,10 +20525,10 @@
         <v>131</v>
       </c>
       <c r="R400">
-        <v>49.568</v>
-      </c>
-    </row>
-    <row r="401" spans="1:18">
+        <v>49.567999999999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -20517,10 +20572,10 @@
         <v>131</v>
       </c>
       <c r="R401">
-        <v>50.882</v>
-      </c>
-    </row>
-    <row r="402" spans="1:18">
+        <v>50.881999999999998</v>
+      </c>
+    </row>
+    <row r="402" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -20567,7 +20622,7 @@
         <v>49.741</v>
       </c>
     </row>
-    <row r="403" spans="1:18">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -20611,10 +20666,10 @@
         <v>131</v>
       </c>
       <c r="R403">
-        <v>49.856</v>
-      </c>
-    </row>
-    <row r="404" spans="1:18">
+        <v>49.856000000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -20661,7 +20716,7 @@
         <v>50.67</v>
       </c>
     </row>
-    <row r="405" spans="1:18">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -20705,10 +20760,10 @@
         <v>131</v>
       </c>
       <c r="R405">
-        <v>49.132</v>
-      </c>
-    </row>
-    <row r="406" spans="1:18">
+        <v>49.131999999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -20755,7 +20810,7 @@
         <v>49.622</v>
       </c>
     </row>
-    <row r="407" spans="1:18">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -20799,10 +20854,10 @@
         <v>131</v>
       </c>
       <c r="R407">
-        <v>50.478</v>
-      </c>
-    </row>
-    <row r="408" spans="1:18">
+        <v>50.478000000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -20846,10 +20901,10 @@
         <v>131</v>
       </c>
       <c r="R408">
-        <v>50.033</v>
-      </c>
-    </row>
-    <row r="409" spans="1:18">
+        <v>50.033000000000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -20896,7 +20951,7 @@
         <v>49.802</v>
       </c>
     </row>
-    <row r="410" spans="1:18">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -20940,10 +20995,10 @@
         <v>131</v>
       </c>
       <c r="R410">
-        <v>49.407</v>
-      </c>
-    </row>
-    <row r="411" spans="1:18">
+        <v>49.406999999999996</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -20990,7 +21045,7 @@
         <v>49.55</v>
       </c>
     </row>
-    <row r="412" spans="1:18">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -21034,10 +21089,10 @@
         <v>131</v>
       </c>
       <c r="R412">
-        <v>48.804</v>
-      </c>
-    </row>
-    <row r="413" spans="1:18">
+        <v>48.804000000000002</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -21081,10 +21136,10 @@
         <v>131</v>
       </c>
       <c r="R413">
-        <v>50.382</v>
-      </c>
-    </row>
-    <row r="414" spans="1:18">
+        <v>50.381999999999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -21128,10 +21183,10 @@
         <v>131</v>
       </c>
       <c r="R414">
-        <v>50.736</v>
-      </c>
-    </row>
-    <row r="415" spans="1:18">
+        <v>50.735999999999997</v>
+      </c>
+    </row>
+    <row r="415" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -21175,10 +21230,10 @@
         <v>131</v>
       </c>
       <c r="R415">
-        <v>50.261</v>
-      </c>
-    </row>
-    <row r="416" spans="1:18">
+        <v>50.261000000000003</v>
+      </c>
+    </row>
+    <row r="416" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -21222,10 +21277,10 @@
         <v>131</v>
       </c>
       <c r="R416">
-        <v>50.179</v>
-      </c>
-    </row>
-    <row r="417" spans="1:18">
+        <v>50.179000000000002</v>
+      </c>
+    </row>
+    <row r="417" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -21272,7 +21327,7 @@
         <v>50.11</v>
       </c>
     </row>
-    <row r="418" spans="1:18">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -21319,7 +21374,7 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="419" spans="1:18">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -21363,10 +21418,10 @@
         <v>131</v>
       </c>
       <c r="R419">
-        <v>50.245</v>
-      </c>
-    </row>
-    <row r="420" spans="1:18">
+        <v>50.244999999999997</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -21413,7 +21468,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="421" spans="1:18">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -21460,7 +21515,7 @@
         <v>50.055</v>
       </c>
     </row>
-    <row r="422" spans="1:18">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -21504,10 +21559,10 @@
         <v>131</v>
       </c>
       <c r="R422">
-        <v>49.902</v>
-      </c>
-    </row>
-    <row r="423" spans="1:18">
+        <v>49.902000000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -21551,10 +21606,10 @@
         <v>131</v>
       </c>
       <c r="R423">
-        <v>49.976</v>
-      </c>
-    </row>
-    <row r="424" spans="1:18">
+        <v>49.975999999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -21598,10 +21653,10 @@
         <v>131</v>
       </c>
       <c r="R424">
-        <v>49.941</v>
-      </c>
-    </row>
-    <row r="425" spans="1:18">
+        <v>49.941000000000003</v>
+      </c>
+    </row>
+    <row r="425" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -21645,10 +21700,10 @@
         <v>131</v>
       </c>
       <c r="R425">
-        <v>50.093</v>
-      </c>
-    </row>
-    <row r="426" spans="1:18">
+        <v>50.093000000000004</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -21692,10 +21747,10 @@
         <v>131</v>
       </c>
       <c r="R426">
-        <v>49.505</v>
-      </c>
-    </row>
-    <row r="427" spans="1:18">
+        <v>49.505000000000003</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -21739,10 +21794,10 @@
         <v>131</v>
       </c>
       <c r="R427">
-        <v>49.118</v>
-      </c>
-    </row>
-    <row r="428" spans="1:18">
+        <v>49.118000000000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -21786,10 +21841,10 @@
         <v>131</v>
       </c>
       <c r="R428">
-        <v>49.923</v>
-      </c>
-    </row>
-    <row r="429" spans="1:18">
+        <v>49.923000000000002</v>
+      </c>
+    </row>
+    <row r="429" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -21833,10 +21888,10 @@
         <v>131</v>
       </c>
       <c r="R429">
-        <v>50.053</v>
-      </c>
-    </row>
-    <row r="430" spans="1:18">
+        <v>50.052999999999997</v>
+      </c>
+    </row>
+    <row r="430" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -21880,10 +21935,10 @@
         <v>131</v>
       </c>
       <c r="R430">
-        <v>49.528</v>
-      </c>
-    </row>
-    <row r="431" spans="1:18">
+        <v>49.527999999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -21927,10 +21982,10 @@
         <v>131</v>
       </c>
       <c r="R431">
-        <v>49.562</v>
-      </c>
-    </row>
-    <row r="432" spans="1:18">
+        <v>49.561999999999998</v>
+      </c>
+    </row>
+    <row r="432" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -21974,10 +22029,10 @@
         <v>131</v>
       </c>
       <c r="R432">
-        <v>49.944</v>
-      </c>
-    </row>
-    <row r="433" spans="1:18">
+        <v>49.944000000000003</v>
+      </c>
+    </row>
+    <row r="433" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -22021,10 +22076,10 @@
         <v>131</v>
       </c>
       <c r="R433">
-        <v>50.129</v>
-      </c>
-    </row>
-    <row r="434" spans="1:18">
+        <v>50.128999999999998</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -22071,7 +22126,7 @@
         <v>50.442</v>
       </c>
     </row>
-    <row r="435" spans="1:18">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -22115,10 +22170,10 @@
         <v>131</v>
       </c>
       <c r="R435">
-        <v>50.316</v>
-      </c>
-    </row>
-    <row r="436" spans="1:18">
+        <v>50.316000000000003</v>
+      </c>
+    </row>
+    <row r="436" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -22162,10 +22217,10 @@
         <v>131</v>
       </c>
       <c r="R436">
-        <v>49.888</v>
-      </c>
-    </row>
-    <row r="437" spans="1:18">
+        <v>49.887999999999998</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -22209,10 +22264,10 @@
         <v>131</v>
       </c>
       <c r="R437">
-        <v>50.124</v>
-      </c>
-    </row>
-    <row r="438" spans="1:18">
+        <v>50.124000000000002</v>
+      </c>
+    </row>
+    <row r="438" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -22256,10 +22311,10 @@
         <v>131</v>
       </c>
       <c r="R438">
-        <v>50.153</v>
-      </c>
-    </row>
-    <row r="439" spans="1:18">
+        <v>50.152999999999999</v>
+      </c>
+    </row>
+    <row r="439" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -22303,10 +22358,10 @@
         <v>131</v>
       </c>
       <c r="R439">
-        <v>50.479</v>
-      </c>
-    </row>
-    <row r="440" spans="1:18">
+        <v>50.478999999999999</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -22350,10 +22405,10 @@
         <v>131</v>
       </c>
       <c r="R440">
-        <v>50.964</v>
-      </c>
-    </row>
-    <row r="441" spans="1:18">
+        <v>50.963999999999999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -22397,10 +22452,10 @@
         <v>131</v>
       </c>
       <c r="R441">
-        <v>50.519</v>
-      </c>
-    </row>
-    <row r="442" spans="1:18">
+        <v>50.518999999999998</v>
+      </c>
+    </row>
+    <row r="442" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -22444,10 +22499,10 @@
         <v>131</v>
       </c>
       <c r="R442">
-        <v>51.097</v>
-      </c>
-    </row>
-    <row r="443" spans="1:18">
+        <v>51.097000000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -22491,10 +22546,10 @@
         <v>131</v>
       </c>
       <c r="R443">
-        <v>50.377</v>
-      </c>
-    </row>
-    <row r="444" spans="1:18">
+        <v>50.377000000000002</v>
+      </c>
+    </row>
+    <row r="444" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -22538,10 +22593,10 @@
         <v>131</v>
       </c>
       <c r="R444">
-        <v>50.635</v>
-      </c>
-    </row>
-    <row r="445" spans="1:18">
+        <v>50.634999999999998</v>
+      </c>
+    </row>
+    <row r="445" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -22585,10 +22640,10 @@
         <v>131</v>
       </c>
       <c r="R445">
-        <v>50.478</v>
-      </c>
-    </row>
-    <row r="446" spans="1:18">
+        <v>50.478000000000002</v>
+      </c>
+    </row>
+    <row r="446" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -22632,10 +22687,10 @@
         <v>131</v>
       </c>
       <c r="R446">
-        <v>49.761</v>
-      </c>
-    </row>
-    <row r="447" spans="1:18">
+        <v>49.761000000000003</v>
+      </c>
+    </row>
+    <row r="447" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -22679,10 +22734,10 @@
         <v>131</v>
       </c>
       <c r="R447">
-        <v>50.162</v>
-      </c>
-    </row>
-    <row r="448" spans="1:18">
+        <v>50.161999999999999</v>
+      </c>
+    </row>
+    <row r="448" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -22729,7 +22784,7 @@
         <v>50.387</v>
       </c>
     </row>
-    <row r="449" spans="1:18">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -22776,7 +22831,7 @@
         <v>50.195</v>
       </c>
     </row>
-    <row r="450" spans="1:18">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -22820,10 +22875,10 @@
         <v>131</v>
       </c>
       <c r="R450">
-        <v>50.701</v>
-      </c>
-    </row>
-    <row r="451" spans="1:18">
+        <v>50.701000000000001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -22867,10 +22922,10 @@
         <v>131</v>
       </c>
       <c r="R451">
-        <v>50.515</v>
-      </c>
-    </row>
-    <row r="452" spans="1:18">
+        <v>50.515000000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -22914,10 +22969,10 @@
         <v>131</v>
       </c>
       <c r="R452">
-        <v>50.658</v>
-      </c>
-    </row>
-    <row r="453" spans="1:18">
+        <v>50.658000000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -22961,10 +23016,10 @@
         <v>131</v>
       </c>
       <c r="R453">
-        <v>50.757</v>
-      </c>
-    </row>
-    <row r="454" spans="1:18">
+        <v>50.756999999999998</v>
+      </c>
+    </row>
+    <row r="454" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -23011,7 +23066,7 @@
         <v>50.119</v>
       </c>
     </row>
-    <row r="455" spans="1:18">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -23058,7 +23113,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="456" spans="1:18">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -23102,10 +23157,10 @@
         <v>131</v>
       </c>
       <c r="R456">
-        <v>50.662</v>
-      </c>
-    </row>
-    <row r="457" spans="1:18">
+        <v>50.661999999999999</v>
+      </c>
+    </row>
+    <row r="457" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -23149,10 +23204,10 @@
         <v>131</v>
       </c>
       <c r="R457">
-        <v>51.252</v>
-      </c>
-    </row>
-    <row r="458" spans="1:18">
+        <v>51.252000000000002</v>
+      </c>
+    </row>
+    <row r="458" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -23199,7 +23254,7 @@
         <v>50.942</v>
       </c>
     </row>
-    <row r="459" spans="1:18">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -23246,7 +23301,7 @@
         <v>50.08</v>
       </c>
     </row>
-    <row r="460" spans="1:18">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -23293,7 +23348,7 @@
         <v>50.183</v>
       </c>
     </row>
-    <row r="461" spans="1:18">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -23337,10 +23392,10 @@
         <v>131</v>
       </c>
       <c r="R461">
-        <v>50.145</v>
-      </c>
-    </row>
-    <row r="462" spans="1:18">
+        <v>50.145000000000003</v>
+      </c>
+    </row>
+    <row r="462" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -23384,10 +23439,10 @@
         <v>131</v>
       </c>
       <c r="R462">
-        <v>50.307</v>
-      </c>
-    </row>
-    <row r="463" spans="1:18">
+        <v>50.307000000000002</v>
+      </c>
+    </row>
+    <row r="463" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -23431,10 +23486,10 @@
         <v>131</v>
       </c>
       <c r="R463">
-        <v>50.411</v>
-      </c>
-    </row>
-    <row r="464" spans="1:18">
+        <v>50.411000000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -23478,10 +23533,10 @@
         <v>131</v>
       </c>
       <c r="R464">
-        <v>50.655</v>
-      </c>
-    </row>
-    <row r="465" spans="1:18">
+        <v>50.655000000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -23528,7 +23583,7 @@
         <v>51.125</v>
       </c>
     </row>
-    <row r="466" spans="1:18">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -23572,10 +23627,10 @@
         <v>131</v>
       </c>
       <c r="R466">
-        <v>50.527</v>
-      </c>
-    </row>
-    <row r="467" spans="1:18">
+        <v>50.527000000000001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -23622,7 +23677,7 @@
         <v>50.238</v>
       </c>
     </row>
-    <row r="468" spans="1:18">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -23666,10 +23721,10 @@
         <v>131</v>
       </c>
       <c r="R468">
-        <v>50.461</v>
-      </c>
-    </row>
-    <row r="469" spans="1:18">
+        <v>50.460999999999999</v>
+      </c>
+    </row>
+    <row r="469" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -23713,10 +23768,10 @@
         <v>131</v>
       </c>
       <c r="R469">
-        <v>49.792</v>
-      </c>
-    </row>
-    <row r="470" spans="1:18">
+        <v>49.792000000000002</v>
+      </c>
+    </row>
+    <row r="470" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -23760,10 +23815,10 @@
         <v>131</v>
       </c>
       <c r="R470">
-        <v>49.703</v>
-      </c>
-    </row>
-    <row r="471" spans="1:18">
+        <v>49.703000000000003</v>
+      </c>
+    </row>
+    <row r="471" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -23807,10 +23862,10 @@
         <v>131</v>
       </c>
       <c r="R471">
-        <v>49.796</v>
-      </c>
-    </row>
-    <row r="472" spans="1:18">
+        <v>49.795999999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -23854,10 +23909,10 @@
         <v>131</v>
       </c>
       <c r="R472">
-        <v>49.772</v>
-      </c>
-    </row>
-    <row r="473" spans="1:18">
+        <v>49.771999999999998</v>
+      </c>
+    </row>
+    <row r="473" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -23901,10 +23956,10 @@
         <v>131</v>
       </c>
       <c r="R473">
-        <v>50.047</v>
-      </c>
-    </row>
-    <row r="474" spans="1:18">
+        <v>50.046999999999997</v>
+      </c>
+    </row>
+    <row r="474" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -23948,10 +24003,10 @@
         <v>131</v>
       </c>
       <c r="R474">
-        <v>50.276</v>
-      </c>
-    </row>
-    <row r="475" spans="1:18">
+        <v>50.276000000000003</v>
+      </c>
+    </row>
+    <row r="475" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -23995,10 +24050,10 @@
         <v>131</v>
       </c>
       <c r="R475">
-        <v>50.507</v>
-      </c>
-    </row>
-    <row r="476" spans="1:18">
+        <v>50.506999999999998</v>
+      </c>
+    </row>
+    <row r="476" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -24045,7 +24100,7 @@
         <v>49.93</v>
       </c>
     </row>
-    <row r="477" spans="1:18">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -24089,10 +24144,10 @@
         <v>131</v>
       </c>
       <c r="R477">
-        <v>50.278</v>
-      </c>
-    </row>
-    <row r="478" spans="1:18">
+        <v>50.277999999999999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -24136,10 +24191,10 @@
         <v>131</v>
       </c>
       <c r="R478">
-        <v>50.106</v>
-      </c>
-    </row>
-    <row r="479" spans="1:18">
+        <v>50.106000000000002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -24183,10 +24238,10 @@
         <v>131</v>
       </c>
       <c r="R479">
-        <v>49.452</v>
-      </c>
-    </row>
-    <row r="480" spans="1:18">
+        <v>49.451999999999998</v>
+      </c>
+    </row>
+    <row r="480" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -24233,7 +24288,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="481" spans="1:18">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -24277,10 +24332,10 @@
         <v>131</v>
       </c>
       <c r="R481">
-        <v>49.324</v>
-      </c>
-    </row>
-    <row r="482" spans="1:18">
+        <v>49.323999999999998</v>
+      </c>
+    </row>
+    <row r="482" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -24324,10 +24379,10 @@
         <v>131</v>
       </c>
       <c r="R482">
-        <v>49.761</v>
-      </c>
-    </row>
-    <row r="483" spans="1:18">
+        <v>49.761000000000003</v>
+      </c>
+    </row>
+    <row r="483" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -24371,10 +24426,10 @@
         <v>131</v>
       </c>
       <c r="R483">
-        <v>49.694</v>
-      </c>
-    </row>
-    <row r="484" spans="1:18">
+        <v>49.694000000000003</v>
+      </c>
+    </row>
+    <row r="484" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -24418,10 +24473,10 @@
         <v>131</v>
       </c>
       <c r="R484">
-        <v>49.706</v>
-      </c>
-    </row>
-    <row r="485" spans="1:18">
+        <v>49.706000000000003</v>
+      </c>
+    </row>
+    <row r="485" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -24465,10 +24520,10 @@
         <v>131</v>
       </c>
       <c r="R485">
-        <v>50.069</v>
-      </c>
-    </row>
-    <row r="486" spans="1:18">
+        <v>50.069000000000003</v>
+      </c>
+    </row>
+    <row r="486" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -24512,10 +24567,10 @@
         <v>131</v>
       </c>
       <c r="R486">
-        <v>48.915</v>
-      </c>
-    </row>
-    <row r="487" spans="1:18">
+        <v>48.914999999999999</v>
+      </c>
+    </row>
+    <row r="487" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -24559,10 +24614,10 @@
         <v>131</v>
       </c>
       <c r="R487">
-        <v>49.254</v>
-      </c>
-    </row>
-    <row r="488" spans="1:18">
+        <v>49.253999999999998</v>
+      </c>
+    </row>
+    <row r="488" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -24609,7 +24664,7 @@
         <v>49.29</v>
       </c>
     </row>
-    <row r="489" spans="1:18">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -24653,10 +24708,10 @@
         <v>131</v>
       </c>
       <c r="R489">
-        <v>50.117</v>
-      </c>
-    </row>
-    <row r="490" spans="1:18">
+        <v>50.116999999999997</v>
+      </c>
+    </row>
+    <row r="490" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -24700,10 +24755,10 @@
         <v>131</v>
       </c>
       <c r="R490">
-        <v>49.329</v>
-      </c>
-    </row>
-    <row r="491" spans="1:18">
+        <v>49.329000000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -24747,10 +24802,10 @@
         <v>131</v>
       </c>
       <c r="R491">
-        <v>49.947</v>
-      </c>
-    </row>
-    <row r="492" spans="1:18">
+        <v>49.947000000000003</v>
+      </c>
+    </row>
+    <row r="492" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -24797,7 +24852,7 @@
         <v>49.881</v>
       </c>
     </row>
-    <row r="493" spans="1:18">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -24841,10 +24896,10 @@
         <v>131</v>
       </c>
       <c r="R493">
-        <v>50.578</v>
-      </c>
-    </row>
-    <row r="494" spans="1:18">
+        <v>50.578000000000003</v>
+      </c>
+    </row>
+    <row r="494" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -24888,10 +24943,10 @@
         <v>131</v>
       </c>
       <c r="R494">
-        <v>49.707</v>
-      </c>
-    </row>
-    <row r="495" spans="1:18">
+        <v>49.707000000000001</v>
+      </c>
+    </row>
+    <row r="495" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -24935,10 +24990,10 @@
         <v>131</v>
       </c>
       <c r="R495">
-        <v>50.216</v>
-      </c>
-    </row>
-    <row r="496" spans="1:18">
+        <v>50.216000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -24982,10 +25037,10 @@
         <v>131</v>
       </c>
       <c r="R496">
-        <v>50.348</v>
-      </c>
-    </row>
-    <row r="497" spans="1:18">
+        <v>50.347999999999999</v>
+      </c>
+    </row>
+    <row r="497" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -25032,7 +25087,7 @@
         <v>49.53</v>
       </c>
     </row>
-    <row r="498" spans="1:18">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -25076,10 +25131,10 @@
         <v>131</v>
       </c>
       <c r="R498">
-        <v>49.356</v>
-      </c>
-    </row>
-    <row r="499" spans="1:18">
+        <v>49.356000000000002</v>
+      </c>
+    </row>
+    <row r="499" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -25123,10 +25178,10 @@
         <v>131</v>
       </c>
       <c r="R499">
-        <v>49.193</v>
-      </c>
-    </row>
-    <row r="500" spans="1:18">
+        <v>49.192999999999998</v>
+      </c>
+    </row>
+    <row r="500" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -25170,10 +25225,10 @@
         <v>131</v>
       </c>
       <c r="R500">
-        <v>49.879</v>
-      </c>
-    </row>
-    <row r="501" spans="1:18">
+        <v>49.878999999999998</v>
+      </c>
+    </row>
+    <row r="501" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -25217,10 +25272,10 @@
         <v>131</v>
       </c>
       <c r="R501">
-        <v>49.115</v>
-      </c>
-    </row>
-    <row r="502" spans="1:18">
+        <v>49.115000000000002</v>
+      </c>
+    </row>
+    <row r="502" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -25264,10 +25319,10 @@
         <v>131</v>
       </c>
       <c r="R502">
-        <v>49.033</v>
-      </c>
-    </row>
-    <row r="503" spans="1:18">
+        <v>49.033000000000001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -25311,10 +25366,10 @@
         <v>131</v>
       </c>
       <c r="R503">
-        <v>48.604</v>
-      </c>
-    </row>
-    <row r="504" spans="1:18">
+        <v>48.603999999999999</v>
+      </c>
+    </row>
+    <row r="504" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -25361,7 +25416,7 @@
         <v>48.11</v>
       </c>
     </row>
-    <row r="505" spans="1:18">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -25405,10 +25460,10 @@
         <v>131</v>
       </c>
       <c r="R505">
-        <v>47.958</v>
-      </c>
-    </row>
-    <row r="506" spans="1:18">
+        <v>47.957999999999998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -25452,10 +25507,10 @@
         <v>131</v>
       </c>
       <c r="R506">
-        <v>49.013</v>
-      </c>
-    </row>
-    <row r="507" spans="1:18">
+        <v>49.012999999999998</v>
+      </c>
+    </row>
+    <row r="507" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -25499,10 +25554,10 @@
         <v>131</v>
       </c>
       <c r="R507">
-        <v>48.722</v>
-      </c>
-    </row>
-    <row r="508" spans="1:18">
+        <v>48.722000000000001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -25549,7 +25604,7 @@
         <v>48.625</v>
       </c>
     </row>
-    <row r="509" spans="1:18">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -25593,10 +25648,10 @@
         <v>131</v>
       </c>
       <c r="R509">
-        <v>47.949</v>
-      </c>
-    </row>
-    <row r="510" spans="1:18">
+        <v>47.948999999999998</v>
+      </c>
+    </row>
+    <row r="510" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -25643,7 +25698,7 @@
         <v>48.27</v>
       </c>
     </row>
-    <row r="511" spans="1:18">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -25687,10 +25742,10 @@
         <v>131</v>
       </c>
       <c r="R511">
-        <v>47.669</v>
-      </c>
-    </row>
-    <row r="512" spans="1:18">
+        <v>47.668999999999997</v>
+      </c>
+    </row>
+    <row r="512" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -25737,7 +25792,7 @@
         <v>47.555</v>
       </c>
     </row>
-    <row r="513" spans="1:18">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -25781,10 +25836,10 @@
         <v>131</v>
       </c>
       <c r="R513">
-        <v>48.519</v>
-      </c>
-    </row>
-    <row r="514" spans="1:18">
+        <v>48.518999999999998</v>
+      </c>
+    </row>
+    <row r="514" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -25828,10 +25883,10 @@
         <v>131</v>
       </c>
       <c r="R514">
-        <v>48.293</v>
-      </c>
-    </row>
-    <row r="515" spans="1:18">
+        <v>48.292999999999999</v>
+      </c>
+    </row>
+    <row r="515" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -25875,10 +25930,10 @@
         <v>131</v>
       </c>
       <c r="R515">
-        <v>48.001</v>
-      </c>
-    </row>
-    <row r="516" spans="1:18">
+        <v>48.000999999999998</v>
+      </c>
+    </row>
+    <row r="516" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -25922,10 +25977,10 @@
         <v>131</v>
       </c>
       <c r="R516">
-        <v>48.179</v>
-      </c>
-    </row>
-    <row r="517" spans="1:18">
+        <v>48.179000000000002</v>
+      </c>
+    </row>
+    <row r="517" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -25969,10 +26024,10 @@
         <v>131</v>
       </c>
       <c r="R517">
-        <v>48.379</v>
-      </c>
-    </row>
-    <row r="518" spans="1:18">
+        <v>48.378999999999998</v>
+      </c>
+    </row>
+    <row r="518" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -26016,10 +26071,10 @@
         <v>131</v>
       </c>
       <c r="R518">
-        <v>48.428</v>
-      </c>
-    </row>
-    <row r="519" spans="1:18">
+        <v>48.427999999999997</v>
+      </c>
+    </row>
+    <row r="519" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -26066,7 +26121,7 @@
         <v>48.997</v>
       </c>
     </row>
-    <row r="520" spans="1:18">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -26113,7 +26168,7 @@
         <v>48.317</v>
       </c>
     </row>
-    <row r="521" spans="1:18">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -26157,10 +26212,10 @@
         <v>131</v>
       </c>
       <c r="R521">
-        <v>48.562</v>
-      </c>
-    </row>
-    <row r="522" spans="1:18">
+        <v>48.561999999999998</v>
+      </c>
+    </row>
+    <row r="522" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -26204,10 +26259,10 @@
         <v>131</v>
       </c>
       <c r="R522">
-        <v>48.507</v>
-      </c>
-    </row>
-    <row r="523" spans="1:18">
+        <v>48.506999999999998</v>
+      </c>
+    </row>
+    <row r="523" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -26251,10 +26306,10 @@
         <v>131</v>
       </c>
       <c r="R523">
-        <v>47.796</v>
-      </c>
-    </row>
-    <row r="524" spans="1:18">
+        <v>47.795999999999999</v>
+      </c>
+    </row>
+    <row r="524" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A524" s="1">
         <v>522</v>
       </c>
